--- a/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4086D554-7875-47FF-9D58-CB957BBFE521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1E600-646D-4D1A-8601-0CF00F176223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="2952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,10 @@
     <t>Oscar Aarts</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
-  </si>
-  <si>
     <t>BUS</t>
+  </si>
+  <si>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
@@ -220,12 +220,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -512,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -524,21 +521,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -546,18 +543,18 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -576,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -588,13 +585,13 @@
     <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -607,140 +604,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J3" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,16 +754,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C1E600-646D-4D1A-8601-0CF00F176223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D8BFF-6B1C-4148-9F78-ACE53264AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,7 +176,7 @@
     <t>BUS</t>
   </si>
   <si>
-    <t>Drew Koecher</t>
+    <t>Ayati Arvind</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
+++ b/TestData/T1174_Companies_AddCFOpportunityOnCompanyDetailPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D8BFF-6B1C-4148-9F78-ACE53264AFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19801C17-75D2-4A27-83B8-983D9B5CD8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23040" windowHeight="11292" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>StdUser</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
     <t>Staff</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>AddOpportunity</t>
   </si>
   <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
     <t>Accountant</t>
   </si>
   <si>
@@ -177,6 +171,12 @@
   </si>
   <si>
     <t>Ayati Arvind</t>
+  </si>
+  <si>
+    <t>HL Sector ID</t>
+  </si>
+  <si>
+    <t>CSDN-0000001546</t>
   </si>
 </sst>
 </file>
@@ -560,10 +560,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,10 +605,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -617,34 +617,34 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -653,19 +653,19 @@
         <v>10</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -676,13 +676,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -691,7 +691,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
@@ -706,10 +706,10 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
         <v>13</v>
@@ -718,19 +718,19 @@
         <v>11</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>45</v>
-      </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -761,7 +761,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
